--- a/current-excel-manifests/AssayAutoradMetadataTemplate.xlsx
+++ b/current-excel-manifests/AssayAutoradMetadataTemplate.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>Component</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>IlluminaNovaseq6000</t>
+  </si>
+  <si>
+    <t>IlluminaNovaSeqX</t>
+  </si>
+  <si>
+    <t>IlluminaNovaSeqXplus</t>
   </si>
   <si>
     <t>IlluminaWholeGenomeDASL</t>
@@ -27665,7 +27671,7 @@
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
-      <formula1>Sheet2!$D$2:$D$81</formula1>
+      <formula1>Sheet2!$D$2:$D$83</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$7</formula1>
@@ -28124,6 +28130,16 @@
         <v>92</v>
       </c>
     </row>
+    <row r="82">
+      <c r="D82" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/AssayAutoradMetadataTemplate.xlsx
+++ b/current-excel-manifests/AssayAutoradMetadataTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -440,6 +440,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
